--- a/docs/ValueSet-yes-no-dontknow-value-set.xlsx
+++ b/docs/ValueSet-yes-no-dontknow-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-04T17:26:31-05:00</t>
+    <t>2023-11-13T08:13:08-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
